--- a/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 33,84</t>
+          <t>0,0; 67,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 26,95</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 27,65</t>
+          <t>0,0; 30,37</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 46,42</t>
+          <t>15,05; 33,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 40,18</t>
+          <t>8,78; 26,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 39,29</t>
+          <t>14,56; 27,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>3,83; 16,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>6,77; 24,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,37</t>
+          <t>6,81; 17,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,26</t>
+          <t>19,22; 46,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 24,03</t>
+          <t>13,15; 40,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,52</t>
+          <t>19,73; 39,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 39,99</t>
+          <t>11,31; 41,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 30,92</t>
+          <t>5,7; 30,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 31,49</t>
+          <t>10,5; 30,6</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 33,84</t>
+          <t>15,4; 34,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 26,95</t>
+          <t>8,07; 27,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 27,65</t>
+          <t>14,21; 28,07</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,26</t>
+          <t>3,81; 17,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 24,03</t>
+          <t>6,6; 23,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,52</t>
+          <t>7,23; 17,67</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,22; 46,42</t>
+          <t>20,02; 46,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,15; 40,18</t>
+          <t>12,56; 38,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,73; 39,29</t>
+          <t>19,82; 38,72</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,94; 25,87</t>
+          <t>15,62; 25,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,74; 21,71</t>
+          <t>11,63; 21,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,31</t>
+          <t>15,19; 22,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,14 +589,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,37</t>
+          <t>0,0; 26,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 41,62</t>
+          <t>9,62; 38,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 30,16</t>
+          <t>5,93; 31,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 30,6</t>
+          <t>10,89; 30,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 34,87</t>
+          <t>15,49; 33,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 27,24</t>
+          <t>8,74; 27,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 28,07</t>
+          <t>14,67; 28,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,87</t>
+          <t>3,73; 17,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 23,57</t>
+          <t>7,6; 24,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 17,67</t>
+          <t>7,18; 17,56</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,02; 46,89</t>
+          <t>19,54; 47,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 38,1</t>
+          <t>12,82; 37,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,82; 38,72</t>
+          <t>19,8; 39,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,62; 25,99</t>
+          <t>15,89; 26,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,63; 21,97</t>
+          <t>11,72; 22,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,13</t>
+          <t>15,27; 22,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,71</t>
+          <t>4,22; 23,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>10,29; 37,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,79</t>
+          <t>10,17; 26,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 38,47</t>
+          <t>7,5; 27,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 31,01</t>
+          <t>14,88; 33,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 30,61</t>
+          <t>13,79; 27,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,49; 33,99</t>
+          <t>2,59; 19,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 27,65</t>
+          <t>3,87; 16,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,67; 28,24</t>
+          <t>4,74; 15,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>28,38%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 17,04</t>
+          <t>13,08; 40,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 24,54</t>
+          <t>18,98; 45,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,56</t>
+          <t>19,63; 39,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 47,01</t>
+          <t>8,61; 19,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 37,14</t>
+          <t>15,64; 25,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,8; 39,27</t>
+          <t>12,8; 20,97</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,47%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,89; 26,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,72; 22,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>15,27; 22,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
